--- a/medicine/Psychotrope/Gouais/Gouais.xlsx
+++ b/medicine/Psychotrope/Gouais/Gouais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gouais est un cépage blanc.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une légende le dit introduit en Europe occidentale par les Huns[a 1]. Il s'agit probablement d'une ancienne distinction dans les pays germaniques entre les bons vins, vendus cher, nommés « vin des Francs » (vinum francorum) et les plus rustiques nommés « vin des Huns »[a 2] (vinum hunicum) et vendus à bas prix.
 </t>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanc de Serres, boarde, bouillan, bouilleaud, bouillenc, colle, enfariné blanc, figuier, foirard blanc, gau, goe, goet, gohet, coix, got, gouai, gouais blanc, gouche, goué, gouest, gouet, gouillaud, gouge, gouget blanc, gros blanc, gueuche blanc, Gwäss, Heunisch, issol, lombard blanc, mendic, moreau blanc, nargouet, pendrillart blanc, perlé gouais, plant de Saint-Rémy, plant de Séchex, roussaou, roux.
 </t>
@@ -574,9 +590,11 @@
           <t>Croisements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le croisement naturel du gouais avec d'autres cépages a donné plusieurs variétés très répandues de nos jours. Sa progéniture avec le pinot noir est pléthorique et de grande diversité : aligoté, aubin vert, auxerrois, bachet noir, beaunoir, chardonnay, dameron, franc noir de la Haute-Saône, gamay blanc Gloriod, gamay, knipperlé, melon, peurion, romorantin, roublot et sacy[1]. Ils constituent la famille des Noiriens.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le croisement naturel du gouais avec d'autres cépages a donné plusieurs variétés très répandues de nos jours. Sa progéniture avec le pinot noir est pléthorique et de grande diversité : aligoté, aubin vert, auxerrois, bachet noir, beaunoir, chardonnay, dameron, franc noir de la Haute-Saône, gamay blanc Gloriod, gamay, knipperlé, melon, peurion, romorantin, roublot et sacy. Ils constituent la famille des Noiriens.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est glabre et rosé.
 Les feuilles adultes sont épaisses, peu découpées, des dents courtes.
@@ -640,10 +660,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Le gouais est vigoureux et fertile. La charge de vendange en fait un cépage moyennement précoce.
-Technologiques
-Il donne un vin de médiocre qualité (peu alcoolique, acide et sans bouquet), ce qui explique en grande partie la totale disparition de ce cépage de nos jours. Il sert à produire la quantité dans un assemblage.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouais est vigoureux et fertile. La charge de vendange en fait un cépage moyennement précoce.
 </t>
         </is>
       </c>
@@ -669,10 +692,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne un vin de médiocre qualité (peu alcoolique, acide et sans bouquet), ce qui explique en grande partie la totale disparition de ce cépage de nos jours. Il sert à produire la quantité dans un assemblage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gouais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gouais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Débourrement tardif, résiste bien aux gelées printanières.
 Port mi-érigé et gros producteur s'épuisant assez vite dans le cas d'une production importante et répétée. Suivant les années, craint le millerandage. Sensible à l'érinose et à la pourriture grise. Maturité 2e époque tardive.
